--- a/tests/fixtures/logical.xlsx
+++ b/tests/fixtures/logical.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B5184E-AFEB-4496-8978-FA783D2DB798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F530F937-32A1-4281-B01D-A76CA7937EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40710" yWindow="10680" windowWidth="18510" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39690" yWindow="4995" windowWidth="12900" windowHeight="19170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical" sheetId="1" r:id="rId1"/>
+    <sheet name="Switch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>1</t>
   </si>
@@ -81,6 +82,27 @@
   </si>
   <si>
     <t>IFS()</t>
+  </si>
+  <si>
+    <t>SWITCH()</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -116,8 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:O44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -500,7 +522,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D3" t="e">
-        <f>AND(A3,A4)</f>
+        <f t="shared" ref="D3:D21" si="0">AND(A3,A4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" t="e">
@@ -555,35 +577,35 @@
         <v>4</v>
       </c>
       <c r="C4" t="e">
-        <f t="shared" ref="C4:C21" si="0">AND(A4,A5)</f>
+        <f t="shared" ref="C4:C21" si="1">AND(A4,A5)</f>
         <v>#NUM!</v>
       </c>
       <c r="D4" t="e">
-        <f>AND(A4,A5)</f>
+        <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E4" t="e">
-        <f t="shared" ref="E4:E21" si="1">NOT(A4)</f>
+        <f t="shared" ref="E4:E21" si="2">NOT(A4)</f>
         <v>#NUM!</v>
       </c>
       <c r="F4" t="e">
-        <f t="shared" ref="F4:F21" si="2">OR(A4:A5)</f>
+        <f t="shared" ref="F4:F21" si="3">OR(A4:A5)</f>
         <v>#NUM!</v>
       </c>
       <c r="G4" t="e">
-        <f t="shared" ref="G4:G21" si="3">OR(A4,A5)</f>
+        <f t="shared" ref="G4:G21" si="4">OR(A4,A5)</f>
         <v>#NUM!</v>
       </c>
       <c r="H4" t="e">
-        <f t="shared" ref="H4:H21" si="4">_xlfn.XOR(A4:A5)</f>
+        <f t="shared" ref="H4:H21" si="5">_xlfn.XOR(A4:A5)</f>
         <v>#NUM!</v>
       </c>
       <c r="I4" t="e">
-        <f t="shared" ref="I4:I21" si="5">_xlfn.XOR(A4,A5)</f>
+        <f t="shared" ref="I4:I21" si="6">_xlfn.XOR(A4,A5)</f>
         <v>#NUM!</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J21" si="6">IFERROR(A4,"ERROR")</f>
+        <f t="shared" ref="J4:J21" si="7">IFERROR(A4,"ERROR")</f>
         <v>ERROR</v>
       </c>
       <c r="K4" t="str" cm="1">
@@ -594,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="e">
-        <f t="shared" ref="M4:M21" si="7">_xlfn.IFNA(A4,"AN NA")</f>
+        <f t="shared" ref="M4:M21" si="8">_xlfn.IFNA(A4,"AN NA")</f>
         <v>#NUM!</v>
       </c>
       <c r="N4" t="e" cm="1">
@@ -614,35 +636,35 @@
         <v>5</v>
       </c>
       <c r="C5" t="e">
+        <f t="shared" si="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="e">
         <f t="shared" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="D5" t="e">
-        <f>AND(A5,A6)</f>
-        <v>#NAME?</v>
-      </c>
       <c r="E5" t="e">
-        <f t="shared" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="F5" t="e">
         <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="G5" t="e">
+      <c r="F5" t="e">
         <f t="shared" si="3"/>
         <v>#NAME?</v>
       </c>
-      <c r="H5" t="e">
+      <c r="G5" t="e">
         <f t="shared" si="4"/>
         <v>#NAME?</v>
       </c>
-      <c r="I5" t="e">
+      <c r="H5" t="e">
         <f t="shared" si="5"/>
         <v>#NAME?</v>
       </c>
+      <c r="I5" t="e">
+        <f t="shared" si="6"/>
+        <v>#NAME?</v>
+      </c>
       <c r="J5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ERROR</v>
       </c>
       <c r="K5" t="str" cm="1">
@@ -653,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NAME?</v>
       </c>
       <c r="N5" t="e" cm="1">
@@ -673,35 +695,35 @@
         <v>6</v>
       </c>
       <c r="C6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D6" t="e">
-        <f>AND(A6,A7)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="G6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="H6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I6" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ERROR</v>
       </c>
       <c r="K6" t="str" cm="1">
@@ -712,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N6" t="e" cm="1">
@@ -732,35 +754,35 @@
         <v>7</v>
       </c>
       <c r="C7" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="D7" t="e">
-        <f>AND(A7,A8)</f>
-        <v>#REF!</v>
-      </c>
       <c r="E7" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G7" t="e">
+      <c r="F7" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H7" t="e">
+      <c r="G7" t="e">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
-      <c r="I7" t="e">
+      <c r="H7" t="e">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
+      <c r="I7" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
       <c r="J7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ERROR</v>
       </c>
       <c r="K7" t="str" cm="1">
@@ -771,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="M7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
       <c r="N7" t="e" cm="1">
@@ -791,35 +813,35 @@
         <v>8</v>
       </c>
       <c r="C8" t="e">
+        <f t="shared" si="1"/>
+        <v>#NULL!</v>
+      </c>
+      <c r="D8" t="e">
         <f t="shared" si="0"/>
         <v>#NULL!</v>
       </c>
-      <c r="D8" t="e">
-        <f>AND(A8,A9)</f>
-        <v>#NULL!</v>
-      </c>
       <c r="E8" t="e">
-        <f t="shared" si="1"/>
-        <v>#NULL!</v>
-      </c>
-      <c r="F8" t="e">
         <f t="shared" si="2"/>
         <v>#NULL!</v>
       </c>
-      <c r="G8" t="e">
+      <c r="F8" t="e">
         <f t="shared" si="3"/>
         <v>#NULL!</v>
       </c>
-      <c r="H8" t="e">
+      <c r="G8" t="e">
         <f t="shared" si="4"/>
         <v>#NULL!</v>
       </c>
-      <c r="I8" t="e">
+      <c r="H8" t="e">
         <f t="shared" si="5"/>
         <v>#NULL!</v>
       </c>
+      <c r="I8" t="e">
+        <f t="shared" si="6"/>
+        <v>#NULL!</v>
+      </c>
       <c r="J8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ERROR</v>
       </c>
       <c r="K8" t="str" cm="1">
@@ -830,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>#NULL!</v>
       </c>
       <c r="N8" t="e" cm="1">
@@ -850,35 +872,35 @@
         <v>9</v>
       </c>
       <c r="C9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D9" t="e">
-        <f>AND(A9,A10)</f>
-        <v>#N/A</v>
-      </c>
       <c r="E9" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="F9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="G9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="H9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="I9" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ERROR</v>
       </c>
       <c r="K9" t="str" cm="1">
@@ -889,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>AN NA</v>
       </c>
       <c r="N9" t="str" cm="1">
@@ -909,35 +931,35 @@
         <v>10</v>
       </c>
       <c r="C10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" t="b">
-        <f>AND(A10,A11)</f>
-        <v>0</v>
-      </c>
       <c r="E10" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="K10" cm="1">
@@ -948,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="M10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="N10" cm="1">
@@ -968,35 +990,35 @@
         <v>11</v>
       </c>
       <c r="C11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" t="b">
-        <f>AND(A11,A12)</f>
-        <v>0</v>
-      </c>
       <c r="E11" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H11" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K11" cm="1">
@@ -1007,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N11" cm="1">
@@ -1027,35 +1049,35 @@
         <v>12</v>
       </c>
       <c r="C12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12" t="b">
-        <f>AND(A12,A13)</f>
-        <v>1</v>
-      </c>
       <c r="E12" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K12" cm="1">
@@ -1066,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N12" cm="1">
@@ -1086,35 +1108,35 @@
         <v>13</v>
       </c>
       <c r="C13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" t="b">
-        <f>AND(A13,A14)</f>
-        <v>1</v>
-      </c>
       <c r="E13" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K13" cm="1">
@@ -1125,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="N13" cm="1">
@@ -1145,35 +1167,35 @@
         <v>14</v>
       </c>
       <c r="C14" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D14" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D14" t="e">
-        <f>AND(A14,A15)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K14" t="str" cm="1">
@@ -1184,7 +1206,7 @@
         <v>14</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N14" t="str" cm="1">
@@ -1204,35 +1226,35 @@
         <v>15</v>
       </c>
       <c r="C15" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D15" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D15" t="e">
-        <f>AND(A15,A16)</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="K15" t="str" cm="1">
@@ -1243,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="N15" t="str" cm="1">
@@ -1263,35 +1285,35 @@
         <v>16</v>
       </c>
       <c r="C16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D16" t="b">
-        <f>AND(A16,A17)</f>
-        <v>1</v>
-      </c>
       <c r="E16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="F16" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>XYZZY</v>
       </c>
       <c r="K16" t="str" cm="1">
@@ -1302,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>XYZZY</v>
       </c>
       <c r="N16" t="str" cm="1">
@@ -1322,35 +1344,35 @@
         <v>17</v>
       </c>
       <c r="C17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" t="b">
-        <f>AND(A17,A18)</f>
-        <v>0</v>
-      </c>
       <c r="E17" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J17" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K17" t="b" cm="1">
@@ -1361,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="M17" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N17" t="b" cm="1">
@@ -1381,35 +1403,35 @@
         <v>18</v>
       </c>
       <c r="C18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" t="b">
-        <f>AND(A18,A19)</f>
-        <v>0</v>
-      </c>
       <c r="E18" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H18" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J18" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K18" t="b" cm="1">
@@ -1420,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="M18" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18" t="b" cm="1">
@@ -1440,35 +1462,35 @@
         <v>19</v>
       </c>
       <c r="C19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D19" t="b">
-        <f>AND(A19,A20)</f>
-        <v>1</v>
-      </c>
       <c r="E19" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.23</v>
       </c>
       <c r="K19" cm="1">
@@ -1479,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.23</v>
       </c>
       <c r="N19" cm="1">
@@ -1499,35 +1521,35 @@
         <v>20</v>
       </c>
       <c r="C20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D20" t="b">
-        <f>AND(A20,A21)</f>
-        <v>1</v>
-      </c>
       <c r="E20" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H20" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.34</v>
       </c>
       <c r="K20" cm="1">
@@ -1538,7 +1560,7 @@
         <v>20</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.34</v>
       </c>
       <c r="N20" cm="1">
@@ -1558,35 +1580,35 @@
         <v>21</v>
       </c>
       <c r="C21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D21" t="b">
-        <f>AND(A21,A22)</f>
-        <v>1</v>
-      </c>
       <c r="E21" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H21" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36526</v>
       </c>
       <c r="K21" cm="1">
@@ -1597,7 +1619,7 @@
         <v>21</v>
       </c>
       <c r="M21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36526</v>
       </c>
       <c r="N21" cm="1">
@@ -1628,27 +1650,27 @@
         <v>26</v>
       </c>
       <c r="D26" t="e">
-        <f>IF(A26,"Is True")</f>
+        <f t="shared" ref="D26:D44" si="9">IF(A26,"Is True")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" t="e">
-        <f>IF(A26,,"Is False")</f>
+        <f t="shared" ref="E26:E44" si="10">IF(A26,,"Is False")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" t="e">
-        <f>IF(1,A26)</f>
+        <f t="shared" ref="F26:F44" si="11">IF(1,A26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G26" t="b">
-        <f>IF(0,A26)</f>
+        <f t="shared" ref="G26:G44" si="12">IF(0,A26)</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF(1,,A26)</f>
+        <f t="shared" ref="H26:H44" si="13">IF(1,,A26)</f>
         <v>0</v>
       </c>
       <c r="I26" t="e">
-        <f>IF(0,,A26)</f>
+        <f t="shared" ref="I26:I44" si="14">IF(0,,A26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" t="e" cm="1">
@@ -1688,27 +1710,27 @@
         <v>27</v>
       </c>
       <c r="D27" t="e">
-        <f>IF(A27,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#NUM!</v>
       </c>
       <c r="E27" t="e">
-        <f>IF(A27,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
       <c r="F27" t="e">
-        <f>IF(1,A27)</f>
+        <f t="shared" si="11"/>
         <v>#NUM!</v>
       </c>
       <c r="G27" t="b">
-        <f>IF(0,A27)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(1,,A27)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I27" t="e">
-        <f>IF(0,,A27)</f>
+        <f t="shared" si="14"/>
         <v>#NUM!</v>
       </c>
       <c r="J27" t="e" cm="1">
@@ -1748,27 +1770,27 @@
         <v>28</v>
       </c>
       <c r="D28" t="e">
-        <f>IF(A28,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#NAME?</v>
       </c>
       <c r="E28" t="e">
-        <f>IF(A28,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#NAME?</v>
       </c>
       <c r="F28" t="e">
-        <f>IF(1,A28)</f>
+        <f t="shared" si="11"/>
         <v>#NAME?</v>
       </c>
       <c r="G28" t="b">
-        <f>IF(0,A28)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IF(1,,A28)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I28" t="e">
-        <f>IF(0,,A28)</f>
+        <f t="shared" si="14"/>
         <v>#NAME?</v>
       </c>
       <c r="J28" t="e" cm="1">
@@ -1808,27 +1830,27 @@
         <v>29</v>
       </c>
       <c r="D29" t="e">
-        <f>IF(A29,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E29" t="e">
-        <f>IF(A29,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F29" t="e">
-        <f>IF(1,A29)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G29" t="b">
-        <f>IF(0,A29)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF(1,,A29)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I29" t="e">
-        <f>IF(0,,A29)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" t="e" cm="1">
@@ -1868,27 +1890,27 @@
         <v>30</v>
       </c>
       <c r="D30" t="e">
-        <f>IF(A30,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
       <c r="E30" t="e">
-        <f>IF(A30,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
       <c r="F30" t="e">
-        <f>IF(1,A30)</f>
+        <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
       <c r="G30" t="b">
-        <f>IF(0,A30)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(1,,A30)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I30" t="e">
-        <f>IF(0,,A30)</f>
+        <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
       <c r="J30" t="e" cm="1">
@@ -1928,27 +1950,27 @@
         <v>31</v>
       </c>
       <c r="D31" t="e">
-        <f>IF(A31,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#NULL!</v>
       </c>
       <c r="E31" t="e">
-        <f>IF(A31,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#NULL!</v>
       </c>
       <c r="F31" t="e">
-        <f>IF(1,A31)</f>
+        <f t="shared" si="11"/>
         <v>#NULL!</v>
       </c>
       <c r="G31" t="b">
-        <f>IF(0,A31)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(1,,A31)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I31" t="e">
-        <f>IF(0,,A31)</f>
+        <f t="shared" si="14"/>
         <v>#NULL!</v>
       </c>
       <c r="J31" t="e" cm="1">
@@ -1988,27 +2010,27 @@
         <v>32</v>
       </c>
       <c r="D32" t="e">
-        <f>IF(A32,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f>IF(A32,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f>IF(1,A32)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G32" t="b">
-        <f>IF(0,A32)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(1,,A32)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I32" t="e">
-        <f>IF(0,,A32)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="J32" t="e" cm="1">
@@ -2048,27 +2070,27 @@
         <v>33</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(A33,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E33">
-        <f>IF(A33,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>IF(1,A33)</f>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G33" t="b">
-        <f>IF(0,A33)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(1,,A33)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(0,,A33)</f>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="J33" t="str" cm="1">
@@ -2108,27 +2130,27 @@
         <v>34</v>
       </c>
       <c r="D34" t="b">
-        <f>IF(A34,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(A34,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>Is False</v>
       </c>
       <c r="F34">
-        <f>IF(1,A34)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G34" t="b">
-        <f>IF(0,A34)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(1,,A34)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(0,,A34)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J34" t="b" cm="1">
@@ -2168,27 +2190,27 @@
         <v>35</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(A35,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E35">
-        <f>IF(A35,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IF(1,A35)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <f>IF(0,A35)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(1,,A35)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(0,,A35)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J35" t="str" cm="1">
@@ -2228,27 +2250,27 @@
         <v>36</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(A36,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E36">
-        <f>IF(A36,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>IF(1,A36)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="G36" t="b">
-        <f>IF(0,A36)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(1,,A36)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>IF(0,,A36)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="J36" t="str" cm="1">
@@ -2288,27 +2310,27 @@
         <v>37</v>
       </c>
       <c r="D37" t="e">
-        <f>IF(A37,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E37" t="e">
-        <f>IF(A37,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(1,A37)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G37" t="b">
-        <f>IF(0,A37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>IF(1,,A37)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I37" t="str">
-        <f>IF(0,,A37)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J37" t="e" cm="1">
@@ -2348,27 +2370,27 @@
         <v>38</v>
       </c>
       <c r="D38" t="e">
-        <f>IF(A38,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E38" t="e">
-        <f>IF(A38,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(1,A38)</f>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="G38" t="b">
-        <f>IF(0,A38)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(1,,A38)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I38" t="str">
-        <f>IF(0,,A38)</f>
+        <f t="shared" si="14"/>
         <v>-1</v>
       </c>
       <c r="J38" t="e" cm="1">
@@ -2408,27 +2430,27 @@
         <v>39</v>
       </c>
       <c r="D39" t="e">
-        <f>IF(A39,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="E39" t="e">
-        <f>IF(A39,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(1,A39)</f>
+        <f t="shared" si="11"/>
         <v>XYZZY</v>
       </c>
       <c r="G39" t="b">
-        <f>IF(0,A39)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f>IF(1,,A39)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I39" t="str">
-        <f>IF(0,,A39)</f>
+        <f t="shared" si="14"/>
         <v>XYZZY</v>
       </c>
       <c r="J39" t="e" cm="1">
@@ -2468,27 +2490,27 @@
         <v>40</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(A40,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E40">
-        <f>IF(A40,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <f>IF(1,A40)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <f>IF(0,A40)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>IF(1,,A40)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <f>IF(0,,A40)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J40" t="str" cm="1">
@@ -2528,27 +2550,27 @@
         <v>41</v>
       </c>
       <c r="D41" t="b">
-        <f>IF(A41,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(A41,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>Is False</v>
       </c>
       <c r="F41" t="b">
-        <f>IF(1,A41)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G41" t="b">
-        <f>IF(0,A41)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(1,,A41)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I41" t="b">
-        <f>IF(0,,A41)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J41" t="b" cm="1">
@@ -2588,27 +2610,27 @@
         <v>42</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(A42,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E42">
-        <f>IF(A42,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>IF(1,A42)</f>
+        <f t="shared" si="11"/>
         <v>1.23</v>
       </c>
       <c r="G42" t="b">
-        <f>IF(0,A42)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>IF(1,,A42)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>IF(0,,A42)</f>
+        <f t="shared" si="14"/>
         <v>1.23</v>
       </c>
       <c r="J42" t="str" cm="1">
@@ -2648,27 +2670,27 @@
         <v>43</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(A43,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E43">
-        <f>IF(A43,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>IF(1,A43)</f>
+        <f t="shared" si="11"/>
         <v>-2.34</v>
       </c>
       <c r="G43" t="b">
-        <f>IF(0,A43)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>IF(1,,A43)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>IF(0,,A43)</f>
+        <f t="shared" si="14"/>
         <v>-2.34</v>
       </c>
       <c r="J43" t="str" cm="1">
@@ -2708,27 +2730,27 @@
         <v>44</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(A44,"Is True")</f>
+        <f t="shared" si="9"/>
         <v>Is True</v>
       </c>
       <c r="E44">
-        <f>IF(A44,,"Is False")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>IF(1,A44)</f>
+        <f t="shared" si="11"/>
         <v>36526</v>
       </c>
       <c r="G44" t="b">
-        <f>IF(0,A44)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(1,,A44)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(0,,A44)</f>
+        <f t="shared" si="14"/>
         <v>36526</v>
       </c>
       <c r="J44" t="str" cm="1">
@@ -2760,4 +2782,887 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8C355E-3969-44CB-B0CF-89D859EB74E0}">
+  <dimension ref="A2:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+      <c r="C3" t="e" cm="1">
+        <f t="array" ref="C3">_xlfn.SWITCH(A3,A3,B3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" t="e" cm="1">
+        <f t="array" ref="D3">_xlfn.SWITCH(B3,A3,A3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" t="e" cm="1">
+        <f t="array" ref="E3">_xlfn.SWITCH(A3,0,-1,A3,-2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" t="e" cm="1">
+        <f t="array" ref="F3">_xlfn.SWITCH(A3,0,"match","no-match")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" t="e" cm="1">
+        <f t="array" ref="G3">_xlfn.SWITCH(B3,A3,B3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e" cm="1">
+        <f t="array" ref="H3">_xlfn.SWITCH(B3,B3,A3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="C4" t="e" cm="1">
+        <f t="array" ref="C4">_xlfn.SWITCH(A4,A4,B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e" cm="1">
+        <f t="array" ref="D4">_xlfn.SWITCH(B4,A4,A4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e" cm="1">
+        <f t="array" ref="E4">_xlfn.SWITCH(A4,0,-1,A4,-2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e" cm="1">
+        <f t="array" ref="F4">_xlfn.SWITCH(A4,0,"match","no-match")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e" cm="1">
+        <f t="array" ref="G4">_xlfn.SWITCH(B4,A4,B4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e" cm="1">
+        <f t="array" ref="H4">_xlfn.SWITCH(B4,B4,A4)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="B5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="C5" t="e" cm="1">
+        <f t="array" ref="C5">_xlfn.SWITCH(A5,A5,B5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="e" cm="1">
+        <f t="array" ref="D5">_xlfn.SWITCH(B5,A5,A5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e" cm="1">
+        <f t="array" ref="E5">_xlfn.SWITCH(A5,0,-1,A5,-2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e" cm="1">
+        <f t="array" ref="F5">_xlfn.SWITCH(A5,0,"match","no-match")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e" cm="1">
+        <f t="array" ref="G5">_xlfn.SWITCH(B5,A5,B5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" t="e" cm="1">
+        <f t="array" ref="H5">_xlfn.SWITCH(B5,B5,A5)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="C6" t="e" cm="1">
+        <f t="array" ref="C6">_xlfn.SWITCH(A6,A6,B6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e" cm="1">
+        <f t="array" ref="D6">_xlfn.SWITCH(B6,A6,A6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e" cm="1">
+        <f t="array" ref="E6">_xlfn.SWITCH(A6,0,-1,A6,-2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e" cm="1">
+        <f t="array" ref="F6">_xlfn.SWITCH(A6,0,"match","no-match")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" t="e" cm="1">
+        <f t="array" ref="G6">_xlfn.SWITCH(B6,A6,B6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="e" cm="1">
+        <f t="array" ref="H6">_xlfn.SWITCH(B6,B6,A6)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="B7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="C7" t="e" cm="1">
+        <f t="array" ref="C7">_xlfn.SWITCH(A7,A7,B7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" t="e" cm="1">
+        <f t="array" ref="D7">_xlfn.SWITCH(B7,A7,A7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" t="e" cm="1">
+        <f t="array" ref="E7">_xlfn.SWITCH(A7,0,-1,A7,-2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" t="e" cm="1">
+        <f t="array" ref="F7">_xlfn.SWITCH(A7,0,"match","no-match")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" t="e" cm="1">
+        <f t="array" ref="G7">_xlfn.SWITCH(B7,A7,B7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" t="e" cm="1">
+        <f t="array" ref="H7">_xlfn.SWITCH(B7,B7,A7)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="B8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="C8" t="e" cm="1">
+        <f t="array" ref="C8">_xlfn.SWITCH(A8,A8,B8)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="D8" t="e" cm="1">
+        <f t="array" ref="D8">_xlfn.SWITCH(B8,A8,A8)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="E8" t="e" cm="1">
+        <f t="array" ref="E8">_xlfn.SWITCH(A8,0,-1,A8,-2)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="F8" t="e" cm="1">
+        <f t="array" ref="F8">_xlfn.SWITCH(A8,0,"match","no-match")</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="G8" t="e" cm="1">
+        <f t="array" ref="G8">_xlfn.SWITCH(B8,A8,B8)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="H8" t="e" cm="1">
+        <f t="array" ref="H8">_xlfn.SWITCH(B8,B8,A8)</f>
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="C9" t="e" cm="1">
+        <f t="array" ref="C9">_xlfn.SWITCH(A9,A9,B9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e" cm="1">
+        <f t="array" ref="D9">_xlfn.SWITCH(B9,A9,A9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e" cm="1">
+        <f t="array" ref="E9">_xlfn.SWITCH(A9,0,-1,A9,-2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e" cm="1">
+        <f t="array" ref="F9">_xlfn.SWITCH(A9,0,"match","no-match")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e" cm="1">
+        <f t="array" ref="G9">_xlfn.SWITCH(B9,A9,B9)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="e" cm="1">
+        <f t="array" ref="H9">_xlfn.SWITCH(B9,B9,A9)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="C10" cm="1">
+        <f t="array" ref="C10">_xlfn.SWITCH(A10,A10,B10)</f>
+        <v>10</v>
+      </c>
+      <c r="D10" t="e" cm="1">
+        <f t="array" ref="D10">_xlfn.SWITCH(B10,A10,A10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">_xlfn.SWITCH(A10,0,-1,A10,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" ref="F10">_xlfn.SWITCH(A10,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G10" t="e" cm="1">
+        <f t="array" ref="G10">_xlfn.SWITCH(B10,A10,B10)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">_xlfn.SWITCH(B10,B10,A10)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">_xlfn.SWITCH(A11,A11,B11)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" t="e" cm="1">
+        <f t="array" ref="D11">_xlfn.SWITCH(B11,A11,A11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">_xlfn.SWITCH(A11,0,-1,A11,-2)</f>
+        <v>-1</v>
+      </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" ref="F11">_xlfn.SWITCH(A11,0,"match","no-match")</f>
+        <v>match</v>
+      </c>
+      <c r="G11" t="e" cm="1">
+        <f t="array" ref="G11">_xlfn.SWITCH(B11,A11,B11)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">_xlfn.SWITCH(B11,B11,A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">_xlfn.SWITCH(A12,A12,B12)</f>
+        <v>12</v>
+      </c>
+      <c r="D12" t="e" cm="1">
+        <f t="array" ref="D12">_xlfn.SWITCH(B12,A12,A12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">_xlfn.SWITCH(A12,0,-1,A12,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12">_xlfn.SWITCH(A12,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G12" t="e" cm="1">
+        <f t="array" ref="G12">_xlfn.SWITCH(B12,A12,B12)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">_xlfn.SWITCH(B12,B12,A12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">_xlfn.SWITCH(A13,A13,B13)</f>
+        <v>13</v>
+      </c>
+      <c r="D13" t="e" cm="1">
+        <f t="array" ref="D13">_xlfn.SWITCH(B13,A13,A13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">_xlfn.SWITCH(A13,0,-1,A13,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13">_xlfn.SWITCH(A13,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G13" t="e" cm="1">
+        <f t="array" ref="G13">_xlfn.SWITCH(B13,A13,B13)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">_xlfn.SWITCH(B13,B13,A13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">_xlfn.SWITCH(A14,A14,B14)</f>
+        <v>14</v>
+      </c>
+      <c r="D14" t="e" cm="1">
+        <f t="array" ref="D14">_xlfn.SWITCH(B14,A14,A14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">_xlfn.SWITCH(A14,0,-1,A14,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" ref="F14">_xlfn.SWITCH(A14,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G14" t="e" cm="1">
+        <f t="array" ref="G14">_xlfn.SWITCH(B14,A14,B14)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.SWITCH(B14,B14,A14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="C15" cm="1">
+        <f t="array" ref="C15">_xlfn.SWITCH(A15,A15,B15)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" t="e" cm="1">
+        <f t="array" ref="D15">_xlfn.SWITCH(B15,A15,A15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">_xlfn.SWITCH(A15,0,-1,A15,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15">_xlfn.SWITCH(A15,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G15" t="e" cm="1">
+        <f t="array" ref="G15">_xlfn.SWITCH(B15,A15,B15)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.SWITCH(B15,B15,A15)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+      <c r="C16" cm="1">
+        <f t="array" ref="C16">_xlfn.SWITCH(A16,A16,B16)</f>
+        <v>16</v>
+      </c>
+      <c r="D16" t="e" cm="1">
+        <f t="array" ref="D16">_xlfn.SWITCH(B16,A16,A16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">_xlfn.SWITCH(A16,0,-1,A16,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16">_xlfn.SWITCH(A16,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G16" t="e" cm="1">
+        <f t="array" ref="G16">_xlfn.SWITCH(B16,A16,B16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.SWITCH(B16,B16,A16)</f>
+        <v>XYZZY</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" ref="C17">_xlfn.SWITCH(A17,A17,B17)</f>
+        <v>17</v>
+      </c>
+      <c r="D17" t="e" cm="1">
+        <f t="array" ref="D17">_xlfn.SWITCH(B17,A17,A17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">_xlfn.SWITCH(A17,0,-1,A17,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17">_xlfn.SWITCH(A17,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G17" t="e" cm="1">
+        <f t="array" ref="G17">_xlfn.SWITCH(B17,A17,B17)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="b" cm="1">
+        <f t="array" ref="H17">_xlfn.SWITCH(B17,B17,A17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18">_xlfn.SWITCH(A18,A18,B18)</f>
+        <v>18</v>
+      </c>
+      <c r="D18" t="e" cm="1">
+        <f t="array" ref="D18">_xlfn.SWITCH(B18,A18,A18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">_xlfn.SWITCH(A18,0,-1,A18,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18">_xlfn.SWITCH(A18,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G18" t="e" cm="1">
+        <f t="array" ref="G18">_xlfn.SWITCH(B18,A18,B18)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="b" cm="1">
+        <f t="array" ref="H18">_xlfn.SWITCH(B18,B18,A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.23</v>
+      </c>
+      <c r="B19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+      <c r="C19" cm="1">
+        <f t="array" ref="C19">_xlfn.SWITCH(A19,A19,B19)</f>
+        <v>19</v>
+      </c>
+      <c r="D19" t="e" cm="1">
+        <f t="array" ref="D19">_xlfn.SWITCH(B19,A19,A19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">_xlfn.SWITCH(A19,0,-1,A19,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" ref="F19">_xlfn.SWITCH(A19,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G19" t="e" cm="1">
+        <f t="array" ref="G19">_xlfn.SWITCH(B19,A19,B19)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xlfn.SWITCH(B19,B19,A19)</f>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-2.34</v>
+      </c>
+      <c r="B20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="C20" cm="1">
+        <f t="array" ref="C20">_xlfn.SWITCH(A20,A20,B20)</f>
+        <v>20</v>
+      </c>
+      <c r="D20" t="e" cm="1">
+        <f t="array" ref="D20">_xlfn.SWITCH(B20,A20,A20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">_xlfn.SWITCH(A20,0,-1,A20,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F20" t="str" cm="1">
+        <f t="array" ref="F20">_xlfn.SWITCH(A20,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G20" t="e" cm="1">
+        <f t="array" ref="G20">_xlfn.SWITCH(B20,A20,B20)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">_xlfn.SWITCH(B20,B20,A20)</f>
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>36526</v>
+      </c>
+      <c r="B21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="C21" cm="1">
+        <f t="array" ref="C21">_xlfn.SWITCH(A21,A21,B21)</f>
+        <v>21</v>
+      </c>
+      <c r="D21" t="e" cm="1">
+        <f t="array" ref="D21">_xlfn.SWITCH(B21,A21,A21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">_xlfn.SWITCH(A21,0,-1,A21,-2)</f>
+        <v>-2</v>
+      </c>
+      <c r="F21" t="str" cm="1">
+        <f t="array" ref="F21">_xlfn.SWITCH(A21,0,"match","no-match")</f>
+        <v>no-match</v>
+      </c>
+      <c r="G21" t="e" cm="1">
+        <f t="array" ref="G21">_xlfn.SWITCH(B21,A21,B21)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">_xlfn.SWITCH(B21,B21,A21)</f>
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.5</v>
+      </c>
+      <c r="B25" s="1">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C25" t="str" cm="1">
+        <f t="array" ref="C25">_xlfn.SWITCH(A25,B25,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" ref="C26">_xlfn.SWITCH(A26,B26,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1.5</v>
+      </c>
+      <c r="B27">
+        <f>-3/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="C27" t="str" cm="1">
+        <f t="array" ref="C27">_xlfn.SWITCH(A27,B27,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="e" cm="1">
+        <f t="array" ref="C28">_xlfn.SWITCH(A28,B28,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="e" cm="1">
+        <f t="array" ref="C29">_xlfn.SWITCH(A29,B29,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str" cm="1">
+        <f t="array" ref="C30">_xlfn.SWITCH(A30,B30,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="str" cm="1">
+        <f t="array" ref="C31">_xlfn.SWITCH(A31,B31,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="e" cm="1">
+        <f t="array" ref="C32">_xlfn.SWITCH(A32,B32,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="str" cm="1">
+        <f t="array" ref="C33">_xlfn.SWITCH(A33,B33,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="str" cm="1">
+        <f t="array" ref="C34">_xlfn.SWITCH(A34,B34,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="str" cm="1">
+        <f t="array" ref="C35">_xlfn.SWITCH(A35,B35,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str" cm="1">
+        <f t="array" ref="C36">_xlfn.SWITCH(A36,B36,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="str" cm="1">
+        <f t="array" ref="C37">_xlfn.SWITCH(A37,B37,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="e" cm="1">
+        <f t="array" ref="C38">_xlfn.SWITCH(A38,B38,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="e" cm="1">
+        <f t="array" ref="C39">_xlfn.SWITCH(A39,B39,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="e" cm="1">
+        <f t="array" ref="C40">_xlfn.SWITCH(A40,B40,"match")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" ref="C41">_xlfn.SWITCH(A41,B41,"match")</f>
+        <v>match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" cm="1">
+        <f t="array" ref="A44:C44">_xlfn.SWITCH(A45:C45,FALSE, 0, TRUE, 1)</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" ref="E44:G44">_xlfn.SWITCH(A45:C45, FALSE, 1, TRUE,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="B45" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="b">
+        <f>AND(A44, E44)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>